--- a/SPPSApi/Doc/Template/FS0620_Data.xlsx
+++ b/SPPSApi/Doc/Template/FS0620_Data.xlsx
@@ -19,10 +19,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>包装工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对象年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +108,10 @@
   </si>
   <si>
     <t>对象年合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装工场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +462,7 @@
   <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -480,107 +480,97 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/SPPSApi/Doc/Template/FS0620_Data.xlsx
+++ b/SPPSApi/Doc/Template/FS0620_Data.xlsx
@@ -10,14 +10,14 @@
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$C$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>对象年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,10 +27,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发注工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内外</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +108,14 @@
   </si>
   <si>
     <t>包装工场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注工场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,115 +463,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="13.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="12.54296875" style="1" customWidth="1"/>
-    <col min="11" max="24" width="8.7265625" style="1"/>
-    <col min="25" max="25" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="13.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="12.54296875" style="1" customWidth="1"/>
+    <col min="12" max="25" width="8.7265625" style="1"/>
+    <col min="26" max="26" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/SPPSApi/Doc/Template/FS0620_Data.xlsx
+++ b/SPPSApi/Doc/Template/FS0620_Data.xlsx
@@ -159,9 +159,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -466,105 +471,106 @@
   <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="13.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="12.54296875" style="1" customWidth="1"/>
-    <col min="12" max="25" width="8.7265625" style="1"/>
-    <col min="26" max="26" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="12.08984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="2"/>
+    <col min="7" max="7" width="13.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="12.54296875" style="2" customWidth="1"/>
+    <col min="12" max="25" width="8.7265625" style="2"/>
+    <col min="26" max="26" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
